--- a/docs/testcase.xlsx
+++ b/docs/testcase.xlsx
@@ -46,7 +46,7 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <rFont val="DejaVu Sans"/>
+        <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">对相同</t>
@@ -63,7 +63,7 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <rFont val="DejaVu Sans"/>
+        <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">位宽的地址进行单次读写，按</t>
@@ -80,7 +80,7 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <rFont val="DejaVu Sans"/>
+        <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">协议要求，约束</t>
@@ -97,7 +97,7 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <rFont val="DejaVu Sans"/>
+        <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">低两位为</t>
@@ -114,7 +114,7 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <rFont val="DejaVu Sans"/>
+        <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">，先写入随机数据再读出，数据应相同</t>
@@ -135,6 +135,7 @@
         <sz val="10"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">和测试</t>
     </r>
@@ -152,23 +153,16 @@
         <sz val="10"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">类似，先写后读，只是循环的次数和覆盖的地址更多</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="DejaVu Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">，先写入随机数据再读出，数据应相同</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="DejaVu Sans"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">类似，先写后读，只是循环的次数和覆盖的地址更多，先写入随机数据再读出，数据应相同</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">对不同</t>
@@ -185,7 +179,7 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <rFont val="DejaVu Sans"/>
+        <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">的数据进行对齐传输测试</t>
@@ -200,6 +194,7 @@
         <sz val="10"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">随机传输在</t>
     </r>
@@ -217,43 +212,20 @@
         <sz val="10"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">位宽的数据，地址对齐（都约束低两位为零）</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="DejaVu Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">，先写入随机数据再读出，数据应相同</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Addr[1:0] == 0
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">bsize inside {BURST_SIZE_8BIT, BURST_SIZE_16BIT, BURST_SIZE_32BIT};</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="DejaVu Sans"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">位宽的数据，地址对齐（都约束低两位为零），先写入随机数据再读出，数据应相同</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Addr[1:0] == 0
+bsize inside {BURST_SIZE_8BIT, BURST_SIZE_16BIT, BURST_SIZE_32BIT};</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">对不同</t>
@@ -270,7 +242,7 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <rFont val="DejaVu Sans"/>
+        <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">的数据进行不对齐传输测试</t>
@@ -285,6 +257,7 @@
         <sz val="10"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">随机传输在</t>
     </r>
@@ -293,6 +266,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">8/16/32</t>
     </r>
@@ -301,6 +275,7 @@
         <sz val="10"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">位宽的数据，但地址不对齐（若传输</t>
     </r>
@@ -309,6 +284,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">16bit</t>
     </r>
@@ -317,6 +293,7 @@
         <sz val="10"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">数据，约束低</t>
     </r>
@@ -325,6 +302,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">1bit</t>
     </r>
@@ -333,6 +311,7 @@
         <sz val="10"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">为</t>
     </r>
@@ -341,6 +320,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">0</t>
     </r>
@@ -349,6 +329,7 @@
         <sz val="10"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">；若传输</t>
     </r>
@@ -357,6 +338,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">32bit</t>
     </r>
@@ -365,6 +347,7 @@
         <sz val="10"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">数据，约束低</t>
     </r>
@@ -373,6 +356,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">2bit</t>
     </r>
@@ -381,6 +365,7 @@
         <sz val="10"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">为</t>
     </r>
@@ -389,6 +374,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">0</t>
     </r>
@@ -397,6 +383,7 @@
         <sz val="10"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">），先写入随机数据再读出，数据应相同</t>
     </r>
@@ -426,7 +413,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -457,18 +444,14 @@
     </font>
     <font>
       <sz val="10"/>
-      <name val="DejaVu Sans"/>
+      <name val="Noto Sans CJK SC"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Noto Sans CJK SC"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -513,7 +496,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -538,10 +521,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -562,10 +541,10 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E7" activeCellId="0" sqref="E7"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="28.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="53.91"/>
@@ -588,7 +567,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="49.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="67.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="n">
         <v>1</v>
       </c>
@@ -635,7 +614,7 @@
       <c r="D4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="4" t="s">
         <v>15</v>
       </c>
     </row>
